--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/复杂多源报表.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/复杂多源报表.xpt.xlsx
@@ -8,19 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B3DE0D-7935-4290-8DB3-43B22A69D2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A26DE-C30E-4AF4-9128-E6EFC591C8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="15580" windowHeight="7930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="XptWorkbookModel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>u</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A0B0CE07-A8BE-4E25-92FB-E8080DDFC964}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>expandType=r
+expandExpr=project
+valueExpr=cell.expandIndex+1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{ECB5307D-F0DD-47E4-893C-7D17461C7648}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>valueExpr=zs.where('ID',xptRt.field('ID')).sum('数量')</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>某市2008年度政府投资项目计划汇总表</t>
   </si>
@@ -49,32 +92,81 @@
     <t>其它资金</t>
   </si>
   <si>
-    <t>社会事业项目</t>
-  </si>
-  <si>
-    <t>交通项目</t>
-  </si>
-  <si>
-    <t>农业水利项目</t>
-  </si>
-  <si>
-    <t>城建项目</t>
-  </si>
-  <si>
-    <t>其他项目</t>
-  </si>
-  <si>
-    <t>工业区项目</t>
-  </si>
-  <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>展开前</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${SUM(C4)}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${SUM(D4)}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${SUM(E4)}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${SUM(F4)}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${SUM(F5)}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${SUM(E4:G4)}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*=项目名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cz.where('ID',xptRt.field('ID')).sum('金额')}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dz.where('ID',xptRt.field('ID')).sum('金额')}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${qt.where('ID',xptRt.field('ID')).sum('金额')}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>let cz = [{ID: '11','金额':111},
+{ID:'12', '金额':430}];
+let dz = [{ID: '11','金额':211},
+{ID:'12', '金额':530}];
+let qt = [{ID: '11','金额':311},
+{ID:'12', '金额':630}];
+let zs = [{ID: '11','数量':10},
+{ID:'12', '数量':20}];
+let project = [{ "项目名称": "社会事业项目",	ID:"11"},
+{"项目名称": "交通项目",ID:"12"},
+{"项目名称":"农业水利项目","ID":"33"}];
+xptRt.makeDs("cz",cz);
+xptRt.makeDs("dz",dz);
+xptRt.makeDs("qt",qt);
+xptRt.makeDs("zs",zs);
+xptRt.makeDs("project",project);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -103,8 +195,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +221,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -160,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,14 +279,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,11 +610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -513,40 +628,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.15" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -562,163 +677,46 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>773</v>
-      </c>
-      <c r="E4" s="2">
-        <v>111</v>
-      </c>
-      <c r="F4" s="2">
-        <v>640</v>
-      </c>
-      <c r="G4" s="2">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1220</v>
-      </c>
-      <c r="E5" s="2">
-        <v>430</v>
-      </c>
-      <c r="F5" s="2">
-        <v>450</v>
-      </c>
-      <c r="G5" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1130</v>
-      </c>
-      <c r="E6" s="2">
-        <v>340</v>
-      </c>
-      <c r="F6" s="2">
-        <v>730</v>
-      </c>
-      <c r="G6" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2525</v>
-      </c>
-      <c r="E7" s="2">
-        <v>760</v>
-      </c>
-      <c r="F7" s="2">
-        <v>880</v>
-      </c>
-      <c r="G7" s="2">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1692</v>
-      </c>
-      <c r="E8" s="2">
-        <v>540</v>
-      </c>
-      <c r="F8" s="2">
-        <v>300</v>
-      </c>
-      <c r="G8" s="2">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1683</v>
-      </c>
-      <c r="E9" s="2">
-        <v>740</v>
-      </c>
-      <c r="F9" s="2">
-        <v>910</v>
-      </c>
-      <c r="G9" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3">
-        <v>192</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9023</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2921</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3910</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -729,5 +727,56 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.27000001072883606" bottom="0.27000001072883606" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1AEFB-F67A-414E-A8D2-704340022100}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="280.5" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/复杂多源报表.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/复杂多源报表.xpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505A26DE-C30E-4AF4-9128-E6EFC591C8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9AFA71-A686-4CC0-A5ED-5B8AAA8C8950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,6 +279,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -288,14 +294,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,7 +614,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -628,40 +628,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.15" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -694,10 +694,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -746,26 +746,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="280.5" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
